--- a/docs/public/help/help_linked_docs/accessioning_template_simple_with_metadata.xlsx
+++ b/docs/public/help/help_linked_docs/accessioning_template_simple_with_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal-2/docs/public/help/help_linked_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B65113-E999-1D44-86CF-D3FB5296EE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E2CD62-E158-2741-AD2B-BC4907F203B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Age:</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>2020-01-11</t>
+  </si>
+  <si>
+    <t>Tags:</t>
+  </si>
+  <si>
+    <t>t1dm_control, xyz_clinical_trial</t>
   </si>
 </sst>
 </file>
@@ -993,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,14 +1021,15 @@
     <col min="13" max="13" width="15.83203125" customWidth="1"/>
     <col min="14" max="14" width="23.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="48" customWidth="1"/>
-    <col min="17" max="17" width="24.33203125" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="12.83203125" customWidth="1"/>
-    <col min="20" max="20" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="26.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="48" customWidth="1"/>
+    <col min="18" max="18" width="24.33203125" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" customWidth="1"/>
+    <col min="21" max="21" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1068,23 +1075,26 @@
       <c r="O1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>55432</v>
       </c>
@@ -1126,15 +1136,18 @@
       <c r="O2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>55432</v>
       </c>
@@ -1176,20 +1189,20 @@
       <c r="O3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>55432</v>
       </c>
@@ -1231,7 +1244,7 @@
       <c r="O4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>37</v>
       </c>
     </row>
